--- a/Calculation/Calculation_Data/Nachbearbeitet/LR_R410A_Data.xlsx
+++ b/Calculation/Calculation_Data/Nachbearbeitet/LR_R410A_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsmoschner/Desktop/Bachelor/03_Code/Calculation/Calculation_Data/Nachbearbeitet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAEBCBE2-DCC0-8848-8F33-48CB0F607209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD773FFA-98B1-A440-B254-A556BF076367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="24220" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>COE</t>
   </si>
@@ -31,25 +31,13 @@
     <t>Score</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>55</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>65</t>
@@ -59,6 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +107,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -135,7 +126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -458,7 +449,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -478,8 +469,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="1">
+        <v>30</v>
       </c>
       <c r="B2">
         <v>241.44696841999999</v>
@@ -493,7 +484,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>268.15980315000002</v>
@@ -506,8 +497,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="1">
+        <v>40</v>
       </c>
       <c r="B4">
         <v>204.51977993</v>
@@ -521,7 +512,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>328.47453992999999</v>
@@ -534,8 +525,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
+      <c r="A6" s="1">
+        <v>50</v>
       </c>
       <c r="B6">
         <v>425.797754</v>
@@ -549,7 +540,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>404.64325280999998</v>
@@ -562,8 +553,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
+      <c r="A8" s="1">
+        <v>60</v>
       </c>
       <c r="B8">
         <v>468.75517474999998</v>
@@ -577,10 +568,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>46786637261</v>
+        <v>467.86637260999998</v>
       </c>
       <c r="C9">
         <v>469.99531643</v>

--- a/Calculation/Calculation_Data/Nachbearbeitet/LR_R410A_Data.xlsx
+++ b/Calculation/Calculation_Data/Nachbearbeitet/LR_R410A_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsmoschner/Desktop/Bachelor/03_Code/Calculation/Calculation_Data/Nachbearbeitet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD773FFA-98B1-A440-B254-A556BF076367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C05B341-501F-1641-BE24-73BCE1037B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="24220" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16380" yWindow="500" windowWidth="24220" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>COE</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>65</t>
+  </si>
+  <si>
+    <t>PI</t>
   </si>
 </sst>
 </file>
@@ -48,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -107,7 +110,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -448,9 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -458,6 +459,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,10 +505,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>204.51977993</v>
+        <v>279.09752557000002</v>
       </c>
       <c r="C4">
-        <v>741.54274720000001</v>
+        <v>209.83277318</v>
       </c>
       <c r="D4">
         <v>0.49423167849559457</v>
